--- a/GNN/Literature_NOTE.xlsx
+++ b/GNN/Literature_NOTE.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local_github\notebook\GNN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356DAF50-FA7F-4DF5-BA89-D01B6A04E05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9264" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Biology" sheetId="1" r:id="rId1"/>
+    <sheet name="Knowledge Graph" sheetId="2" r:id="rId2"/>
+    <sheet name="Social Network" sheetId="3" r:id="rId3"/>
+    <sheet name="Graphy Cluster" sheetId="4" r:id="rId4"/>
+    <sheet name="Program Representation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,13 +29,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +347,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F435C7-3EC9-4228-BE92-A78AD2DE355F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9516633-D3C7-4499-BDA3-3A7B8DEF77FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13125A1-EFF5-4BBE-8EBD-1C53D202A039}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B736417-4E11-40A0-A404-FF65B76D9441}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GNN/Literature_NOTE.xlsx
+++ b/GNN/Literature_NOTE.xlsx
@@ -8,16 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local_github\notebook\GNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356DAF50-FA7F-4DF5-BA89-D01B6A04E05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A40A3D-1B4F-4D14-8E61-BD633D9E6F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9264" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7488" yWindow="1308" windowWidth="15864" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Biology" sheetId="1" r:id="rId1"/>
-    <sheet name="Knowledge Graph" sheetId="2" r:id="rId2"/>
-    <sheet name="Social Network" sheetId="3" r:id="rId3"/>
-    <sheet name="Graphy Cluster" sheetId="4" r:id="rId4"/>
-    <sheet name="Program Representation" sheetId="5" r:id="rId5"/>
+    <sheet name="图神经网络及其应用" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,9 +24,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffinityNet Semi-supervised Few-shot Learning for Disease Type Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GraphNAS: Graph Neural Architecture Search with Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ijcai/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaai/2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gao, Y., Yang, H., Zhang, P., Zhou, C., &amp; Hu, Y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ma, T., &amp; Zhang, A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据组织：将独立非图结构数据依据相似度构图思想以图的形式进行组织并使用GAT对图数据进行融合表示;
+2.加入单个样本特征选择机制并融入训练中学习选择权重;
+3.做了很多生物信息学的实验来验证方法的有效性;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.总结图卷积的有效架构并定义单层图卷积组件的搜索空间
+2.使用强化学习进行搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多做生物信息实验验证模型效果
+2.单个样本特征选择机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +142,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +174,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -348,68 +497,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F435C7-3EC9-4228-BE92-A78AD2DE355F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9516633-D3C7-4499-BDA3-3A7B8DEF77FC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13125A1-EFF5-4BBE-8EBD-1C53D202A039}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B736417-4E11-40A0-A404-FF65B76D9441}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GNN/Literature_NOTE.xlsx
+++ b/GNN/Literature_NOTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local_github\notebook\GNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A40A3D-1B4F-4D14-8E61-BD633D9E6F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10923EDB-2DD4-4396-BFBF-3149FCDB87D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7488" yWindow="1308" windowWidth="15864" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20844" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图神经网络及其应用" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,17 +109,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.总结图卷积的有效架构并定义单层图卷积组件的搜索空间
-2.使用强化学习进行搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>思考点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.定义强化学习图神经网络组件Search space
+2.搜索每一步action的type顺序确定
+3.使用LSTM构建controller，基于概率P进行sample确定action,保证探索性
+4.是用GNN val_score确定reward，基于reward+entropy*c确定actionreward
+5.使用policy loss计算LSTM损失，将问题转化为梯度下降优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在GraphNas确定best_structrue后，对结构中部分组件进行local search提升效果？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.多做生物信息实验验证模型效果
-2.单个样本特征选择机制</t>
+2.单个样本特征筛选机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +222,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,8 +519,8 @@
     <col min="5" max="5" width="62.6640625" customWidth="1"/>
     <col min="6" max="6" width="41.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -533,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -545,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -562,7 +569,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
@@ -574,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -588,9 +595,11 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>

--- a/GNN/Literature_NOTE.xlsx
+++ b/GNN/Literature_NOTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local_github\notebook\GNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10923EDB-2DD4-4396-BFBF-3149FCDB87D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32699F37-C410-423A-8A17-767F9A0B4A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20844" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-156" yWindow="3492" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图神经网络及其应用" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <t>1.数据组织：将独立非图结构数据依据相似度构图思想以图的形式进行组织并使用GAT对图数据进行融合表示;
 2.加入单个样本特征选择机制并融入训练中学习选择权重;
 3.做了很多生物信息学的实验来验证方法的有效性;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思考点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,6 +123,14 @@
   <si>
     <t>1.多做生物信息实验验证模型效果
 2.单个样本特征筛选机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arvix/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 思考点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,21 +513,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -528,603 +533,527 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
